--- a/Coraltraits/coraltraits_mapping_Eli.xlsx
+++ b/Coraltraits/coraltraits_mapping_Eli.xlsx
@@ -61,7 +61,7 @@
     <t>units</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unit</t>
+    <t>Unit</t>
   </si>
   <si>
     <t>added</t>
@@ -1518,7 +1518,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>

--- a/Coraltraits/coraltraits_mapping_Eli.xlsx
+++ b/Coraltraits/coraltraits_mapping_Eli.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>SPECIAL CASES</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>uri</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/entity/Q3503448</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/entity/Q5153621</t>
+  </si>
+  <si>
+    <t>uncommon</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/uncommon</t>
   </si>
   <si>
     <t>standard_unit</t>
@@ -140,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -163,13 +181,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -182,6 +287,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -189,6 +321,18 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1274,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1311,6 +1455,55 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1322,43 +1515,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.7344" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.7344" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.7344" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7344" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.7344" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.7344" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.7344" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.7344" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.7344" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.7344" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.7344" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.7344" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.7344" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.7344" style="4" customWidth="1"/>
-    <col min="19" max="19" width="10.7344" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10.7344" style="4" customWidth="1"/>
-    <col min="21" max="21" width="10.7344" style="4" customWidth="1"/>
-    <col min="22" max="22" width="28.5781" style="4" customWidth="1"/>
-    <col min="23" max="23" width="10.7344" style="4" customWidth="1"/>
-    <col min="24" max="24" width="10.7344" style="4" customWidth="1"/>
-    <col min="25" max="25" width="10.7344" style="4" customWidth="1"/>
-    <col min="26" max="26" width="10.7344" style="4" customWidth="1"/>
-    <col min="27" max="27" width="10.7344" style="4" customWidth="1"/>
-    <col min="28" max="28" width="10.7344" style="4" customWidth="1"/>
-    <col min="29" max="29" width="10.7344" style="4" customWidth="1"/>
-    <col min="30" max="30" width="10.7344" style="4" customWidth="1"/>
-    <col min="31" max="256" width="10.7344" style="4" customWidth="1"/>
+    <col min="1" max="1" width="32" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.7344" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.7344" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.7344" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.7344" style="13" customWidth="1"/>
+    <col min="9" max="9" width="10.7344" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.7344" style="13" customWidth="1"/>
+    <col min="11" max="11" width="10.7344" style="13" customWidth="1"/>
+    <col min="12" max="12" width="10.7344" style="13" customWidth="1"/>
+    <col min="13" max="13" width="10.7344" style="13" customWidth="1"/>
+    <col min="14" max="14" width="10.7344" style="13" customWidth="1"/>
+    <col min="15" max="15" width="10.7344" style="13" customWidth="1"/>
+    <col min="16" max="16" width="10.7344" style="13" customWidth="1"/>
+    <col min="17" max="17" width="10.7344" style="13" customWidth="1"/>
+    <col min="18" max="18" width="10.7344" style="13" customWidth="1"/>
+    <col min="19" max="19" width="10.7344" style="13" customWidth="1"/>
+    <col min="20" max="20" width="10.7344" style="13" customWidth="1"/>
+    <col min="21" max="21" width="10.7344" style="13" customWidth="1"/>
+    <col min="22" max="22" width="28.5781" style="13" customWidth="1"/>
+    <col min="23" max="23" width="10.7344" style="13" customWidth="1"/>
+    <col min="24" max="24" width="10.7344" style="13" customWidth="1"/>
+    <col min="25" max="25" width="10.7344" style="13" customWidth="1"/>
+    <col min="26" max="26" width="10.7344" style="13" customWidth="1"/>
+    <col min="27" max="27" width="10.7344" style="13" customWidth="1"/>
+    <col min="28" max="28" width="10.7344" style="13" customWidth="1"/>
+    <col min="29" max="29" width="10.7344" style="13" customWidth="1"/>
+    <col min="30" max="30" width="10.7344" style="13" customWidth="1"/>
+    <col min="31" max="256" width="10.7344" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -1404,7 +1597,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="5"/>
+      <c r="W1" s="14"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -1436,7 +1629,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="5"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -1444,6 +1637,262 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="9"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="9"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="9"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="9"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="9"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="9"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1456,18 +1905,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8672" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7344" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="6" customWidth="1"/>
-    <col min="6" max="256" width="10.7344" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.8672" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.7344" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.7344" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="15" customWidth="1"/>
+    <col min="6" max="256" width="10.7344" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -1482,11 +1931,79 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>14</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1499,23 +2016,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.9766" style="7" customWidth="1"/>
-    <col min="2" max="2" width="51.7969" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="7" customWidth="1"/>
-    <col min="6" max="256" width="10.7344" style="7" customWidth="1"/>
+    <col min="1" max="1" width="29" style="20" customWidth="1"/>
+    <col min="2" max="2" width="51.8672" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.7344" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="20" customWidth="1"/>
+    <col min="6" max="256" width="10.7344" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>12</v>
@@ -1526,81 +2043,102 @@
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Coraltraits/coraltraits_mapping_Eli.xlsx
+++ b/Coraltraits/coraltraits_mapping_Eli.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>SPECIAL CASES</t>
   </si>
@@ -71,6 +71,78 @@
   </si>
   <si>
     <t>http://eol.org/schema/terms/uncommon</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106180</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106181</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106182</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106183</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106184</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106185</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106186</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106187</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106188</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106189</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106191</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106192</t>
   </si>
   <si>
     <t>standard_unit</t>
@@ -158,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -268,13 +340,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -287,31 +396,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -333,6 +442,24 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1905,14 +2032,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10.8672" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.7344" style="15" customWidth="1"/>
+    <col min="2" max="2" width="64.0547" style="15" customWidth="1"/>
     <col min="3" max="3" width="10.7344" style="15" customWidth="1"/>
     <col min="4" max="4" width="10.7344" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.7344" style="15" customWidth="1"/>
@@ -1964,46 +2091,143 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="19">
+        <v>20</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="19">
+        <v>22</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="A7" t="s" s="18">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="19">
+        <v>24</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+      <c r="A8" t="s" s="18">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="19">
+        <v>26</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+      <c r="A9" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="19">
+        <v>28</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="A10" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="21">
+        <v>30</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" t="s" s="22">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" t="s" s="22">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" t="s" s="22">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" t="s" s="22">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="23">
+        <v>38</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" t="s" s="22">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="23">
+        <v>40</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" t="s" s="22">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,17 +2246,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29" style="20" customWidth="1"/>
-    <col min="2" max="2" width="51.8672" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="20" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="20" customWidth="1"/>
-    <col min="6" max="256" width="10.7344" style="20" customWidth="1"/>
+    <col min="1" max="1" width="29" style="26" customWidth="1"/>
+    <col min="2" max="2" width="51.8672" style="26" customWidth="1"/>
+    <col min="3" max="3" width="10.7344" style="26" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="26" customWidth="1"/>
+    <col min="6" max="256" width="10.7344" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>12</v>
@@ -2043,78 +2267,78 @@
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>

--- a/Coraltraits/coraltraits_mapping_Eli.xlsx
+++ b/Coraltraits/coraltraits_mapping_Eli.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>SPECIAL CASES</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>http://eol.org/schema/terms/Âµmol_m-2_s-1</t>
+  </si>
+  <si>
+    <t>ºC</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000027</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2045,7 @@
   <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10.8672" style="15" customWidth="1"/>
-    <col min="2" max="2" width="64.0547" style="15" customWidth="1"/>
+    <col min="2" max="2" width="64.1562" style="15" customWidth="1"/>
     <col min="3" max="3" width="10.7344" style="15" customWidth="1"/>
     <col min="4" max="4" width="10.7344" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.7344" style="15" customWidth="1"/>
@@ -2240,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2344,25 +2350,24 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" t="s" s="16">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s" s="17">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s" s="17">
+        <v>46</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Coraltraits/coraltraits_mapping_Eli.xlsx
+++ b/Coraltraits/coraltraits_mapping_Eli.xlsx
@@ -175,7 +175,15 @@
     <t>µm cm^-2 h^-1</t>
   </si>
   <si>
-    <t>http://eol.org/schema/terms/Âµmol_cm-2_hr-1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://eol.org/schema/terms/µmol_cm-2_hr-1</t>
+    </r>
   </si>
   <si>
     <t>µmol O2 cm^-2 h^-1</t>
@@ -184,7 +192,15 @@
     <t>µmol quanta m^-2 s^-1</t>
   </si>
   <si>
-    <t>http://eol.org/schema/terms/Âµmol_m-2_s-1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://eol.org/schema/terms/µmol_m-2_s-1</t>
+    </r>
   </si>
   <si>
     <t>ºC</t>
@@ -200,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -220,6 +236,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -389,7 +411,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -469,6 +491,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -490,6 +521,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2246,7 +2278,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2369,7 +2401,19 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B6" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="B7" r:id="rId3" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/Coraltraits/coraltraits_mapping_Eli.xlsx
+++ b/Coraltraits/coraltraits_mapping_Eli.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>SPECIAL CASES</t>
   </si>
@@ -143,6 +143,39 @@
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C106192</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
   <si>
     <t>standard_unit</t>
@@ -411,7 +444,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -493,13 +526,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2070,7 +2097,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2261,11 +2288,143 @@
       <c r="E16" s="25"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" t="s" s="16">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s" s="17">
+        <v>20</v>
+      </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" t="s" s="18">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s" s="19">
+        <v>24</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="21">
+        <v>30</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" t="s" s="22">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" t="s" s="22">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" ht="17" customHeight="1">
+      <c r="A25" t="s" s="22">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" ht="17" customHeight="1">
+      <c r="A26" t="s" s="22">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="23">
+        <v>38</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" t="s" s="22">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="23">
+        <v>40</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" ht="17" customHeight="1">
+      <c r="A28" t="s" s="22">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,7 +2453,7 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>12</v>
@@ -2305,91 +2464,91 @@
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="16">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s" s="17">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s" s="17">
         <v>57</v>
-      </c>
-      <c r="B8" t="s" s="17">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s" s="17">
-        <v>46</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2403,10 +2562,10 @@
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
